--- a/fal_c.xlsx
+++ b/fal_c.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardmorton/analysis/FAL_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardmorton/github_reps/FAL_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC72C389-0254-2B42-82BE-F7BABB7E3CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B03152-7750-F84B-AA2A-4C3CE11E6B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="500" windowWidth="30720" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,12 +440,12 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="B3" sqref="B3:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -513,422 +513,422 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>2219.4299999999998</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>102770</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>6560000000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>5480000000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>111000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>432</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.59799999999999998</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>20100000</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>528000000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>2217.88</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>98790</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>6810000000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>5700000000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>179000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>1200</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>1.54</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>44100000</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>526000000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>2216.4299999999998</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>94800</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>7070000000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>5940000000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>246000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>0.08</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>2860</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>3.39</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>72800000</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>522000000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>2215.08</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>90816</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>7360000000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>6210000000</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>344000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.111</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>6720</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>7.25</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>105000000</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>517000000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>2212.92</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>83891</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>7910000000</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>6730000000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>700000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>0.22</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>26400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>24.4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>177000000</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>498000000</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>2210.75</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>75934</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>8660000000</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>7450000000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>2050000</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>6.2900000000000001E-91</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>125000</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>94.2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>290000000</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>459000000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>2209.65</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>71336</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>9170000000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>7940000000</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>4390000</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>1.33</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>329000</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>215</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>370000000</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>428000000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>2208.5300000000002</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>66145</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>9820000000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>8560000000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>9810000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>2.97</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>862000</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>469</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>475000000</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>386000000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2207.4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>60170</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>10700000000</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>9410000000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>23100000</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>7.09</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>2360000</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>992</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>613000000</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>333000000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>2206.27</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>53284</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>11900000000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>10600000000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>57000000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>18.3</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>6750000</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>1930</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>790000000</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>273000000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>2205.6999999999998</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>49385</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>12800000000</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>11400000000</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>93400000</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>31.2</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>11900000</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>2610</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>892000000</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>247000000</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>2205.1799999999998</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>45416</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>13800000000</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>12300000000</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>147000000</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>51.9</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>20300000</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>3280</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>998000000</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>230000000</v>
       </c>
     </row>
@@ -936,1712 +936,1712 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>2204.66</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>41178</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>15100000000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>13500000000</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>232000000</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>88</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>34600000</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>3760</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>1120000000</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>222000000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>2204.13</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>36594</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>16700000000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>15000000000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>369000000</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>153</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>60500000</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>3750</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>1260000000</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>221000000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>2203.63</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>32145</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>18800000000</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>16900000000</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>570000000</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>261</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>102000000</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>3140</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>1410000000</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>227000000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>2203.16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>27972</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>21200000000</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>19100000000</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>850000000</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>423</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>164000000</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>2260</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>1590000000</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>233000000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>2202.6999999999998</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>24056</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>24100000000</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>21800000000</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>1240000000</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>662</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>250000000</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>1520</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>1810000000</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>236000000</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>2202.2199999999998</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>20416</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>27700000000</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>25100000000</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>1780000000</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>1020</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>389000000</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>1300</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>2070000000</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>222000000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>2201.83</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>17925</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>30800000000</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>28100000000</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>2350000000</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>1400</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>582000000</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>1430</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>2260000000</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>190000000</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>2201.56</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>16500</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>32900000000</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>30100000000</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>2820000000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>1720</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>745000000</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>1600</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>2380000000</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>166000000</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>2201.16</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>15000</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>35300000000</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>32500000000</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>3600000000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>2260</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>994000000</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>1850</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>2480000000</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>126000000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>2200.84</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>14250</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>36500000000</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>33800000000</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>4280000000</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>2750</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>1200000000</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>1980</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>2500000000</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>100000000</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>2200.1</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>13500</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>37300000000</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>34700000000</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>5890000000</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>4000</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>1610000000</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>2010</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>2400000000</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>55700000</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>2199</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>13000</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>37200000000</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>34800000000</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>5990</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>2050000000</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>1910</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>2210000000</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>44800000</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>2190</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>12000</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>35600000000</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>33000000000</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>17100000000</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>2530000000</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>2230</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>2450000000</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>30700000</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>2168</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>11150</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>38100000000</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>35400000000</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>21200000000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>25900</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>3030000000</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>2620</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>2600000000</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>28200000</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>2140</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>10550</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>40600000000</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>37700000000</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>26300000000</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>29600</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>3630000000</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>3000</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>2750000000</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>26600000</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>2110</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>9900</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>42400000000</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>39200000000</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>35400000000</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>31500</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>4480000000</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>3490</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>2960000000</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>25800000</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>2087</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>9450</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>43100000000</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>39800000000</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>44500000000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>32300</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>5280000000</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>3850</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>3140000000</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>25300000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>2075</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>9200</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>43400000000</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>40000000000</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>50300000000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>32700</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>5780000000</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>4050</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>3230000000</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>25100000</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>2062</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>8950</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>43600000000</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>40100000000</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>33200</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>6370000000</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>4270</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>3330000000</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>24900000</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>2043</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>8700</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>40100000000</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>66900000000</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>7250000000</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>4500</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>3440000000</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>24400000</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>2017</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>8400</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>43900000000</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>40100000000</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>81800000000</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>35400</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>8640000000</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>4740</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>3540000000</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>23300000</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>1980</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>8050</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>44200000000</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>40300000000</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>106000000000</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>38000</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>11100000000</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <v>4910</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="1">
         <v>3560000000</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>20900000</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>1915</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>7650</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>45400000000</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>41900000000</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>157000000000</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>43700</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>16800000000</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>4540</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>3150000000</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>14300000</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>1860</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>7450</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>47000000000</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>44100000000</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>212000000000</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>49600</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>23200000000</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <v>3730</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>2520000000</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>8690000</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>1775</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>7250</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>50800000000</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>48700000000</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>331000000000</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>61300</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>36600000000</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>234</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>1490000000</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>3070000</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>1670</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>7050</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>57400000000</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>55800000000</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>574000000000</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>80100</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>62200000000</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>1270</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>855000000</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>887000</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>1580</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>6900</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>63200000000</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>61600000000</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>928000000000</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>96900</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>98400000000</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>778</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>558000000</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>349000</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>1475</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>6720</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>70400000000</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>68900000000</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>1660000000000</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>118000</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>172000000000</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>374</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>221000000</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>72300</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>1378</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>6560</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>78600000000</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>76600000000</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>2890000000000</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>142000</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>297000000000</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>287</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>264000000</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>11000</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>1278</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>6390</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>87600000000</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>85300000000</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>5300000000000</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>169000</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>539000000000</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>245</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>227000000</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>5690</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>1180</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>6230</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>98000000000</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>95000000000</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>9920000000000</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>200000</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>1000000000000</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>169</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>93200000</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>1065</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>6040</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>110000000000</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>105000000000</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>21500000000000</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>235000</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>2160000000000</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>124</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>48600000</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>37.9</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>980</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>5900</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>118000000000</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>110000000000</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>39200000000000</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>263000</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>3930000000000</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>35800000</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>905</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>5755</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>123000000000</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>111000000000</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>67900000000000</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>274000</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>6800000000000</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>72.7</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>26200000</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>2.86</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>855</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>5650</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>124000000000</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>109000000000</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>99200000000000</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>270000</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>9930000000000</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>61.1</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>21200000</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>1.27</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>805</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>5490</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>108000000000</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>85400000000</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>148000000000000</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>212000</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>14800000000000</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>56.1</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>20400000</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>755</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>5280</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>94100000000</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>61800000000</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>227000000000000</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>138000</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>22700000000000</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>51.5</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>19200000</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>705</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>5030</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>82800000000</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>34900000000</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>356000000000000</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>71000</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>35600000000000</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>41.6</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>15600000</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>0.13</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>650</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>4750</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>90300000000</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>13500000000</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>603000000000000</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>31600</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>60300000000000</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>22.7</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>7820000</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>1.7100000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>600</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>4550</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>126000000000</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>5460000000</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>989000000000000</v>
       </c>
       <c r="G54" t="s">
         <v>18</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>98900000000000</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>11.6</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>3200000</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>1.34E-3</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>560</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>4430</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>177000000000</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>2970000000</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>1480000000000000</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>14900</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>148000000000000</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>6.46</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>1570000</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="1">
         <v>1.36E-4</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>525</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>4400</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>241000000000</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>2570000000</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>2080000000000000</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="1">
         <v>18000</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="1">
         <v>208000000000000</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="1">
         <v>3.19</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <v>716000</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="1">
         <v>1.3900000000000001E-5</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>490</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>4410</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>328000000000</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>2760000000</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>2900000000000000</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <v>26700</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="1">
         <v>290000000000000</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="1">
         <v>1.24</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <v>245000</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="1">
         <v>9.78E-7</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>450</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>4460</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>466000000000</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>3730000000</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>4190000000000000</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="1">
         <v>51500</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="1">
         <v>419000000000000</v>
       </c>
       <c r="I58" t="s">
         <v>19</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="1">
         <v>43200</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="1">
         <v>2.0199999999999999E-8</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>400</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>4560</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>724000000000</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>6700000000</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <v>6540000000000000</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="1">
         <v>142000</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="1">
         <v>655000000000000</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="1">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="1">
         <v>1610</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="1">
         <v>1.8300000000000001E-11</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>350</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>4660</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>1120000000000</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>12100000000</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>1.01E+16</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="1">
         <v>380000</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="1">
         <v>1010000000000000</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="1">
         <v>7.75E-5</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60" s="1">
         <v>9.9499999999999993</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="1">
         <v>4.5999999999999998E-16</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>300</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>4770</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>1710000000000</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>23800000000</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>1.54E+16</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="1">
         <v>1040000</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="1">
         <v>1540000000000000</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <v>4.3599999999999998E-6</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <v>3.44E-2</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="1">
         <v>5.3700000000000004E-22</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>250</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>4880</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>2600000000000</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>49400000000</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>2.33E+16</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="1">
         <v>2730000</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="1">
         <v>2330000000000000</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="1">
         <v>1.9300000000000002E-5</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="1">
         <v>0.10199999999999999</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="1">
         <v>9.5700000000000005E-26</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>200</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>4990</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>3930000000000</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>110000000000</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>3.47E+16</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="1">
         <v>6950000</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>3480000000000000</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="1">
         <v>8.7800000000000006E-5</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="1">
         <v>0.39</v>
       </c>
       <c r="K63" t="s">
@@ -2649,317 +2649,317 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>150</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>5150</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>6040000000000</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>322000000000</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>5.05E+16</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="1">
         <v>21200000</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="1">
         <v>5060000000000000</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="1">
         <v>5.8E-4</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="1">
         <v>5.4700000000000001E-36</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>100</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>5410</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>9890000000000</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>1400000000000</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>7.1E+16</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="1">
         <v>89600000</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>7110000000000000</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="1">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65" s="1">
         <v>33.299999999999997</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="1">
         <v>4.3799999999999998E-41</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>50</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>5790</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>19700000000000</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>9.55E+16</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="1">
         <v>507000000</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>9560000000000000</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66" s="1">
         <v>807</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="1">
         <v>2.0299999999999999E-37</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>0</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>6520</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>76800000000000</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>60000000000000</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>1.18E+17</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="1">
         <v>6180000000</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <v>1.18E+16</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="1">
         <v>73100</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <v>1.04E-30</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>-20</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>6980</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>173000000000000</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>153000000000000</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>1.24E+17</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="1">
         <v>21500000000</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="1">
         <v>1.25E+16</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="1">
         <v>184</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="1">
         <v>685000</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="1">
         <v>2.8200000000000001E-27</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>-40</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>7590</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>4.4864139999999999</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>425000000000000</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>1.28E+17</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="1">
         <v>86300000000</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="1">
         <v>1.28E+16</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="1">
         <v>2660</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="1">
         <v>8370000</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <v>2.1800000000000001E-23</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>-60</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>8220</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>1050000000000000</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>1020000000000000</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>1.3E+17</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="1">
         <v>290000000000</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="1">
         <v>1.31E+16</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="1">
         <v>27700</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70" s="1">
         <v>73900000</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="1">
         <v>5.4900000000000005E-20</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>-80</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>8860</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>2210000000000000</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>2180000000000000</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>1.3E+17</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="1">
         <v>823000000000</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="1">
         <v>1.32E+16</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>212000</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71" s="1">
         <v>489000000</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="1">
         <v>4.9600000000000001E-17</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>-100</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>9400</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>3870000000000000</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>3830000000000000</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>1.31E+17</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>1790000000000</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="1">
         <v>1.35E+16</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="1">
         <v>958000</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="1">
         <v>1990000000</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="1">
         <v>7.5799999999999993E-15</v>
       </c>
     </row>
